--- a/tabular/eve/parvovirinae/epv-erythyro-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-erythyro-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E9179-833D-AF4C-978A-D3FF1660282F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7978423-2E4D-754A-8C03-9499C7EADAEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="6440" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2CCDC7F5-49D5-E94A-84D8-68DF3FAF2277}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
   <si>
     <t>sequenceID</t>
   </si>
@@ -145,13 +145,22 @@
   </si>
   <si>
     <t>Erythyroparvovirus</t>
+  </si>
+  <si>
+    <t>IL1RAPL1</t>
+  </si>
+  <si>
+    <t>AKNRD7</t>
+  </si>
+  <si>
+    <t>KCND2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,8 +191,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +223,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -242,6 +269,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CDEB45-2B2D-5640-8765-ED5799D7E31C}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="A1:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,11 +922,11 @@
       <c r="O2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>22</v>
+      <c r="P2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>22</v>
@@ -961,11 +990,11 @@
       <c r="O3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>22</v>
+      <c r="P3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>22</v>

--- a/tabular/eve/parvovirinae/epv-erythyro-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-erythyro-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7978423-2E4D-754A-8C03-9499C7EADAEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611C9149-AAA4-4F40-83DB-B39BF0D52441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="6440" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2CCDC7F5-49D5-E94A-84D8-68DF3FAF2277}"/>
   </bookViews>
@@ -789,12 +789,13 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="A1:X3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
